--- a/MODULE (2) ASSIGNMENT/VLOOKUP 2a.xlsx
+++ b/MODULE (2) ASSIGNMENT/VLOOKUP 2a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOPS TECHNO\ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURVI PAWAR\Documents\GitHub\tops-data-analytics\MODULE (2) ASSIGNMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16F102-ED4A-44BA-A313-823A28C5ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72354B0F-D3E6-4ECC-A9D4-02F471364A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49AE84F3-0EE5-47A4-BC2B-AA7920376694}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -969,7 +969,10 @@
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="str">
+        <f>VLOOKUP("B*",B2:E12,4,FALSE)</f>
+        <v>Accountant</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="12.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
